--- a/pred_ohlcv/54_21/2019-10-27 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 VALOR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-27035.4251</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-29171.6983</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-29081.6914</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-28686.7548</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-30731.9977</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-30921.6045</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-25341.22218848921</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-70331.54461971525</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-70329.73031971525</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-71635.47751971525</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-68923.93201971526</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-68923.93201971526</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-68923.93201971526</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-68922.93201971526</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-69069.01601971526</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-68970.73441971526</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-68969.73441971526</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-68971.93161971525</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-68944.93161971525</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-68798.93051971526</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-68890.10311971526</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-68839.09841971526</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-76831.84541696552</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-77642.64651696551</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-76905.66241696551</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-76905.66241696551</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-77269.9429169655</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-77744.67611696551</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-77743.66731696551</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-77412.60341696552</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-77412.60341696552</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-77043.05841696552</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-78789.74551696551</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-78788.74551696551</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-79615.45801696551</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-79615.45801696551</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-79183.6134169655</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-79198.2267169655</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-84705.6152169655</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-84705.6152169655</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-85636.4063169655</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-91283.6641169655</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-82813.22271696551</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-82813.22271696551</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-81610.9891169655</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-71963.2590169655</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-57276.35791696551</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-57549.18031696551</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-59724.75531696551</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-59724.75531696551</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-59723.75531696551</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-59797.89681696551</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-59797.89681696551</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-59073.30921696551</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-59073.30921696551</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-61073.30921696551</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-61073.30921696551</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-68095.78491696551</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-68095.78491696551</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-66761.94661696551</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-66761.94661696551</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-66761.94661696551</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-66410.3632169655</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-66040.27541696551</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-66223.8053169655</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-66705.0403169655</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-27 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 VALOR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-27035.4251</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-29171.6983</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-29081.6914</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-28686.7548</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-29032.0264</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-30731.9977</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-25341.22218848921</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-25341.22218848921</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-68923.93201971526</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-68922.93201971526</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-69069.01601971526</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-68970.73441971526</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-68969.73441971526</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-68971.93161971525</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-77642.64651696551</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-76905.66241696551</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-76905.66241696551</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-77269.9429169655</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-77744.67611696551</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-77743.66731696551</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-77412.60341696552</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-77412.60341696552</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-77043.05841696552</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-78789.74551696551</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-78788.74551696551</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-79615.45801696551</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-79615.45801696551</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-85636.4063169655</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-91283.6641169655</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-82813.22271696551</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-82813.22271696551</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-81610.9891169655</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-71963.2590169655</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-56409.1437169655</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-56663.9684169655</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-58167.0974169655</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-58847.6762169655</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-55324.62741696551</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-57276.35791696551</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-57365.47591696551</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-59724.75531696551</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-59724.75531696551</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-59723.75531696551</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-59797.89681696551</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-59797.89681696551</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-59073.30921696551</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-59073.30921696551</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-61073.30921696551</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-61073.30921696551</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-68095.78491696551</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-68095.78491696551</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-66761.94661696551</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-66761.94661696551</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-66761.94661696551</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-66410.3632169655</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-66040.27541696551</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-66223.8053169655</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-66705.0403169655</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
